--- a/Tidsredovinsing/AMEK Tidsredovisning 2019-2021.xlsx
+++ b/Tidsredovinsing/AMEK Tidsredovisning 2019-2021.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F00FA3-63D5-4E19-B4F6-47CD75A4C9F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADED559E-382E-4851-9F00-8A294EE7F431}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="810" windowWidth="23385" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="465" windowWidth="23385" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Datum</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>Hantering av ritningsnotiser i Ordus och ordusrapport, test och deploy</t>
+  </si>
+  <si>
+    <t>Ändra, utskrift, sortering , visa av ritningsnotiser</t>
+  </si>
+  <si>
+    <t>Extra visning av ritningsnotering i Orderfönstret</t>
   </si>
 </sst>
 </file>
@@ -600,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G46"/>
+  <dimension ref="A2:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,6 +1203,28 @@
         <v>42</v>
       </c>
     </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>43921</v>
+      </c>
+      <c r="B47" s="9">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43925</v>
+      </c>
+      <c r="B48" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C24">
     <sortCondition ref="A4"/>

--- a/Tidsredovinsing/AMEK Tidsredovisning 2019-2021.xlsx
+++ b/Tidsredovinsing/AMEK Tidsredovisning 2019-2021.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADED559E-382E-4851-9F00-8A294EE7F431}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E38CFF-C133-48BB-9D2B-32376351FB76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="465" windowWidth="23385" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Datum</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>Extra visning av ritningsnotering i Orderfönstret</t>
+  </si>
+  <si>
+    <t>Ändringar enl epost beställning 2021-05-18</t>
+  </si>
+  <si>
+    <t>Deploy, test, backup db enl. beställning 2021-05-18</t>
   </si>
 </sst>
 </file>
@@ -606,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G48"/>
+  <dimension ref="A2:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,6 +1197,10 @@
       <c r="A45" s="21" t="s">
         <v>41</v>
       </c>
+      <c r="B45" s="9">
+        <f>SUM(B46:B94)</f>
+        <v>10.5</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
@@ -1223,6 +1233,28 @@
       </c>
       <c r="C48" s="2" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>43974</v>
+      </c>
+      <c r="B49" s="9">
+        <v>3</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>43975</v>
+      </c>
+      <c r="B50" s="9">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Tidsredovinsing/AMEK Tidsredovisning 2019-2021.xlsx
+++ b/Tidsredovinsing/AMEK Tidsredovisning 2019-2021.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E38CFF-C133-48BB-9D2B-32376351FB76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A4B806-909B-4B61-8C95-BED3C64936E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="0" windowWidth="23385" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Datum</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>Deploy, test, backup db enl. beställning 2021-05-18</t>
+  </si>
+  <si>
+    <t>Kolumn1</t>
+  </si>
+  <si>
+    <t>Uppdatera akktuella prisuppgifter när uppdrag skapas</t>
+  </si>
+  <si>
+    <t>C:\Users\Peter Holzer\OneDrive - AB Helsingborgshem\Privat\dev_one\dj_Ekosys</t>
   </si>
 </sst>
 </file>
@@ -334,16 +343,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99F57D30-B174-48E0-B919-2D1E3C097C37}" name="Tabell1" displayName="Tabell1" ref="A3:D43" totalsRowShown="0" headerRowDxfId="3" headerRowCellStyle="Dekorfärg5" dataCellStyle="Normal">
-  <autoFilter ref="A3:D43" xr:uid="{9AA31001-A837-48B2-B9DF-C1874D30CF05}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99F57D30-B174-48E0-B919-2D1E3C097C37}" name="Tabell1" displayName="Tabell1" ref="A3:E43" totalsRowShown="0" headerRowDxfId="3" headerRowCellStyle="Dekorfärg5" dataCellStyle="Normal">
+  <autoFilter ref="A3:E43" xr:uid="{9AA31001-A837-48B2-B9DF-C1874D30CF05}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D22">
     <sortCondition ref="A3:A22"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F160376E-4202-4D9F-BAD7-92D800A8658F}" name="Datum" dataDxfId="2" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{E8E956A3-C6EE-4A51-86DB-0ADF909717A9}" name="Timmar" dataDxfId="1" dataCellStyle="Tusental"/>
     <tableColumn id="3" xr3:uid="{E118698E-9DFE-4F73-9D35-BCB0B4CECB8F}" name="Syfte" dataDxfId="0" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{75DDA57F-1153-4CF1-81C8-B72C2365CC8A}" name="Fakturerat" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{F4AB0C80-17BA-4C62-AD69-BF73071FCDC3}" name="Kolumn1" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -612,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G50"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,8 +637,13 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -641,18 +656,23 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="C4" s="6"/>
       <c r="D4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="C5" s="6"/>
       <c r="D5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43145</v>
       </c>
@@ -665,8 +685,9 @@
       <c r="D6">
         <v>201901</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43152</v>
       </c>
@@ -679,8 +700,9 @@
       <c r="D7">
         <v>201901</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43166</v>
       </c>
@@ -693,8 +715,9 @@
       <c r="D8">
         <v>201901</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
@@ -703,8 +726,9 @@
       <c r="D9">
         <v>201901</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43481</v>
       </c>
@@ -717,8 +741,9 @@
       <c r="D10">
         <v>201901</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43482</v>
       </c>
@@ -731,8 +756,9 @@
       <c r="D11">
         <v>201901</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43484</v>
       </c>
@@ -745,8 +771,9 @@
       <c r="D12">
         <v>201901</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43485</v>
       </c>
@@ -759,8 +786,9 @@
       <c r="D13">
         <v>201901</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43488</v>
       </c>
@@ -773,8 +801,9 @@
       <c r="D14">
         <v>201901</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43494</v>
       </c>
@@ -787,8 +816,9 @@
       <c r="D15">
         <v>201901</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43496</v>
       </c>
@@ -801,6 +831,7 @@
       <c r="D16">
         <v>201901</v>
       </c>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -815,6 +846,7 @@
       <c r="D17">
         <v>201901</v>
       </c>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
@@ -829,6 +861,7 @@
       <c r="D18">
         <v>201901</v>
       </c>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
@@ -843,6 +876,7 @@
       <c r="D19">
         <v>201901</v>
       </c>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
@@ -857,6 +891,7 @@
       <c r="D20">
         <v>201901</v>
       </c>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
@@ -871,6 +906,7 @@
       <c r="D21">
         <v>201901</v>
       </c>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -885,6 +921,7 @@
       <c r="D22">
         <v>201901</v>
       </c>
+      <c r="E22" s="13"/>
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -900,6 +937,7 @@
       <c r="D23">
         <v>201901</v>
       </c>
+      <c r="E23" s="13"/>
       <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -915,6 +953,7 @@
       <c r="D24">
         <v>201901</v>
       </c>
+      <c r="E24" s="13"/>
       <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -930,6 +969,7 @@
       <c r="D25">
         <v>201901</v>
       </c>
+      <c r="E25" s="13"/>
       <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -945,6 +985,7 @@
       <c r="D26">
         <v>201901</v>
       </c>
+      <c r="E26" s="13"/>
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -960,6 +1001,7 @@
       <c r="D27">
         <v>201901</v>
       </c>
+      <c r="E27" s="13"/>
       <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -975,6 +1017,7 @@
       <c r="D28">
         <v>201901</v>
       </c>
+      <c r="E28" s="13"/>
       <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -990,6 +1033,7 @@
       <c r="D29" s="13">
         <v>202001</v>
       </c>
+      <c r="E29" s="13"/>
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1005,6 +1049,7 @@
       <c r="D30" s="13">
         <v>202001</v>
       </c>
+      <c r="E30" s="13"/>
       <c r="G30" s="18"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1020,6 +1065,7 @@
       <c r="D31" s="13">
         <v>202001</v>
       </c>
+      <c r="E31" s="13"/>
       <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1035,6 +1081,7 @@
       <c r="D32" s="13">
         <v>202001</v>
       </c>
+      <c r="E32" s="13"/>
       <c r="G32" s="18"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1050,6 +1097,7 @@
       <c r="D33" s="13">
         <v>202001</v>
       </c>
+      <c r="E33" s="13"/>
       <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1065,6 +1113,7 @@
       <c r="D34" s="13">
         <v>202001</v>
       </c>
+      <c r="E34" s="13"/>
       <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1073,6 +1122,7 @@
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
       <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1088,6 +1138,9 @@
       <c r="D36" s="13">
         <v>202001</v>
       </c>
+      <c r="E36" s="13">
+        <v>510</v>
+      </c>
       <c r="G36" s="18"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1103,6 +1156,9 @@
       <c r="D37" s="13">
         <v>202001</v>
       </c>
+      <c r="E37" s="13">
+        <v>510</v>
+      </c>
       <c r="G37" s="18"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1118,6 +1174,9 @@
       <c r="D38" s="13">
         <v>202001</v>
       </c>
+      <c r="E38" s="13">
+        <v>510</v>
+      </c>
       <c r="G38" s="18"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1133,6 +1192,9 @@
       <c r="D39" s="13">
         <v>202001</v>
       </c>
+      <c r="E39" s="13">
+        <v>510</v>
+      </c>
       <c r="G39" s="19"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1148,6 +1210,9 @@
       <c r="D40" s="13">
         <v>202001</v>
       </c>
+      <c r="E40" s="13">
+        <v>510</v>
+      </c>
       <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1163,6 +1228,9 @@
       <c r="D41" s="13">
         <v>202003</v>
       </c>
+      <c r="E41" s="13">
+        <v>510</v>
+      </c>
       <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1178,6 +1246,9 @@
       <c r="D42" s="13">
         <v>202003</v>
       </c>
+      <c r="E42" s="13">
+        <v>510</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
@@ -1192,19 +1263,18 @@
       <c r="D43" s="13">
         <v>202003</v>
       </c>
+      <c r="E43" s="13">
+        <v>510</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="9">
-        <f>SUM(B46:B94)</f>
-        <v>10.5</v>
-      </c>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>43913</v>
+        <v>44278</v>
       </c>
       <c r="B46" s="9">
         <v>4</v>
@@ -1212,10 +1282,16 @@
       <c r="C46" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="D46" s="1">
+        <v>20211222</v>
+      </c>
+      <c r="E46" s="1">
+        <v>525</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>43921</v>
+        <v>44286</v>
       </c>
       <c r="B47" s="9">
         <v>2</v>
@@ -1223,10 +1299,16 @@
       <c r="C47" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D47" s="1">
+        <v>20211222</v>
+      </c>
+      <c r="E47" s="1">
+        <v>525</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>43925</v>
+        <v>44290</v>
       </c>
       <c r="B48" s="9">
         <v>0.5</v>
@@ -1234,10 +1316,16 @@
       <c r="C48" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="1">
+        <v>20211222</v>
+      </c>
+      <c r="E48" s="1">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>43974</v>
+        <v>44339</v>
       </c>
       <c r="B49" s="9">
         <v>3</v>
@@ -1245,16 +1333,51 @@
       <c r="C49" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="1">
+        <v>20211222</v>
+      </c>
+      <c r="E49" s="1">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>43975</v>
+        <v>44340</v>
       </c>
       <c r="B50" s="9">
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="D50" s="1">
+        <v>20211222</v>
+      </c>
+      <c r="E50" s="1">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>44528</v>
+      </c>
+      <c r="B51" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="1">
+        <v>20211222</v>
+      </c>
+      <c r="E51" s="1">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="9">
+        <f>SUM(B46:B51)</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
